--- a/Team-Data/2011-12/2-2-2011-12.xlsx
+++ b/Team-Data/2011-12/2-2-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.696</v>
+        <v>0.727</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="P2" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
         <v>22.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>5.1</v>
@@ -735,40 +802,40 @@
         <v>17.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
@@ -777,22 +844,22 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU2" t="n">
         <v>5</v>
@@ -801,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -962,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -989,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
         <v>28</v>
@@ -1144,25 +1211,25 @@
         <v>28</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,82 +1279,82 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="O5" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U5" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V5" t="n">
         <v>14.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,40 +1372,40 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>6</v>
@@ -1350,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
@@ -1484,19 +1551,19 @@
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
@@ -1505,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1517,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1544,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9</v>
       </c>
-      <c r="AF7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1678,7 +1745,7 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1693,10 +1760,10 @@
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>5</v>
@@ -1708,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1729,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
         <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>80.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
         <v>20.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="O8" t="n">
         <v>21.3</v>
       </c>
       <c r="P8" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.749</v>
+        <v>0.744</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T8" t="n">
         <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="V8" t="n">
         <v>16.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -1890,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-10.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>27</v>
@@ -2039,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
@@ -2048,19 +2115,19 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>20</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2072,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
         <v>7.4</v>
       </c>
       <c r="M10" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.729</v>
+        <v>0.722</v>
       </c>
       <c r="R10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="U10" t="n">
         <v>22.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2191,73 +2258,73 @@
         <v>23.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2406,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2415,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>30</v>
@@ -2436,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
         <v>20</v>
@@ -2457,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2573,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
@@ -2582,22 +2649,22 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
         <v>24</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>8</v>
@@ -2612,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>27</v>
@@ -2633,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2668,109 +2735,109 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.65</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.46</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="O13" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="U13" t="n">
         <v>21.6</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="O13" t="n">
-        <v>17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R13" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>21.7</v>
-      </c>
       <c r="V13" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
         <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -2779,31 +2846,31 @@
         <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>4</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -2958,19 +3025,19 @@
         <v>20</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3000,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
@@ -3098,34 +3165,34 @@
         <v>5.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -3143,49 +3210,49 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3319,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
@@ -3328,19 +3395,19 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
@@ -3349,7 +3416,7 @@
         <v>25</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3513,16 +3580,16 @@
         <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3531,13 +3598,13 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
         <v>17</v>
@@ -3546,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3689,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
         <v>5</v>
@@ -3719,19 +3786,19 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>4</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3850,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3859,7 +3926,7 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3901,7 +3968,7 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,7 +4027,7 @@
         <v>34.7</v>
       </c>
       <c r="J20" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.443</v>
@@ -3969,70 +4036,70 @@
         <v>3.7</v>
       </c>
       <c r="M20" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="O20" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.741</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V20" t="n">
         <v>15.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -4050,19 +4117,19 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>19</v>
@@ -4083,13 +4150,13 @@
         <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -4124,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.364</v>
+        <v>0.381</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="J21" t="n">
-        <v>80.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.425</v>
+        <v>0.421</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="P21" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
         <v>18.9</v>
       </c>
       <c r="V21" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
         <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>95</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4220,61 +4287,61 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT21" t="n">
         <v>17</v>
       </c>
-      <c r="AS21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>19</v>
-      </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
       </c>
       <c r="AW21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX21" t="n">
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4420,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4447,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4602,7 +4669,7 @@
         <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>16</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
@@ -4641,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>11.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4778,16 +4845,16 @@
         <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>28</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4939,7 +5006,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4948,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4969,13 +5036,13 @@
         <v>28</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
@@ -4996,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
         <v>0.441</v>
       </c>
       <c r="L26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M26" t="n">
         <v>18.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.785</v>
       </c>
       <c r="R26" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T26" t="n">
         <v>43.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X26" t="n">
         <v>5.3</v>
@@ -5100,37 +5167,37 @@
         <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5142,16 +5209,16 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>14</v>
@@ -5163,28 +5230,28 @@
         <v>7</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.318</v>
+        <v>0.286</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
@@ -5234,37 +5301,37 @@
         <v>33.3</v>
       </c>
       <c r="J27" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="L27" t="n">
         <v>5.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
         <v>0.285</v>
       </c>
       <c r="O27" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P27" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R27" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U27" t="n">
         <v>16</v>
@@ -5282,28 +5349,28 @@
         <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA27" t="n">
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-10.6</v>
+        <v>-11.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
@@ -5312,7 +5379,7 @@
         <v>27</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5321,19 +5388,19 @@
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5357,19 +5424,19 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>9</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.625</v>
+        <v>0.609</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.718</v>
+        <v>0.714</v>
       </c>
       <c r="R28" t="n">
         <v>10</v>
@@ -5449,40 +5516,40 @@
         <v>41.3</v>
       </c>
       <c r="U28" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y28" t="n">
         <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5494,25 +5561,25 @@
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
         <v>27</v>
@@ -5527,7 +5594,7 @@
         <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5539,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-7.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
@@ -5700,13 +5767,13 @@
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5718,16 +5785,16 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.291</v>
+        <v>0.293</v>
       </c>
       <c r="O30" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P30" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T30" t="n">
         <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
         <v>13.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
         <v>22</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5849,16 +5916,16 @@
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>4</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5873,16 +5940,16 @@
         <v>29</v>
       </c>
       <c r="AO30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP30" t="n">
         <v>4</v>
       </c>
-      <c r="AP30" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>17</v>
@@ -5897,25 +5964,25 @@
         <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6061,16 +6128,16 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2011-12</t>
+          <t>2012-02-02</t>
         </is>
       </c>
     </row>
